--- a/data/age.xlsx
+++ b/data/age.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xxx\Mitakihara-shi_restart_engine\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xxx\newone\bacon.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DADEB2-4399-4E10-8F7A-790EB47A9C4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E413E01D-3A1F-4234-9DE1-3992DB905C8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="495" windowWidth="38625" windowHeight="21225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="528">
   <si>
     <t>年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1631,6 +1631,10 @@
   </si>
   <si>
     <t>33</t>
+  </si>
+  <si>
+    <t>ota</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2072,7 +2076,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="44.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3963,7 +3967,9 @@
       <c r="B7" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="8" spans="1:294" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
